--- a/Pratice/src/main/resources/outputfilefinal.xlsx
+++ b/Pratice/src/main/resources/outputfilefinal.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="337">
   <si>
     <t>Device</t>
   </si>
@@ -385,6 +385,246 @@
   </si>
   <si>
     <t>s:stream:type</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>pageName (Value)</t>
+  </si>
+  <si>
+    <t>pageName (Status)</t>
+  </si>
+  <si>
+    <t>serviceProfileId (Value)</t>
+  </si>
+  <si>
+    <t>serviceProfileId (Status)</t>
+  </si>
+  <si>
+    <t>pageType (Value)</t>
+  </si>
+  <si>
+    <t>pageType (Status)</t>
+  </si>
+  <si>
+    <t>siteSection (Value)</t>
+  </si>
+  <si>
+    <t>siteSection (Status)</t>
+  </si>
+  <si>
+    <t>trackingId (Value)</t>
+  </si>
+  <si>
+    <t>trackingId (Status)</t>
+  </si>
+  <si>
+    <t>appVersion (Value)</t>
+  </si>
+  <si>
+    <t>appVersion (Status)</t>
+  </si>
+  <si>
+    <t>cvsdkVersion (Value)</t>
+  </si>
+  <si>
+    <t>cvsdkVersion (Status)</t>
+  </si>
+  <si>
+    <t>deviceModel (Value)</t>
+  </si>
+  <si>
+    <t>deviceModel (Status)</t>
+  </si>
+  <si>
+    <t>deviceType (Value)</t>
+  </si>
+  <si>
+    <t>deviceType (Status)</t>
+  </si>
+  <si>
+    <t>platform (Value)</t>
+  </si>
+  <si>
+    <t>platform (Status)</t>
+  </si>
+  <si>
+    <t>rsid (Value)</t>
+  </si>
+  <si>
+    <t>rsid (Status)</t>
+  </si>
+  <si>
+    <t>territory (Value)</t>
+  </si>
+  <si>
+    <t>territory (Status)</t>
+  </si>
+  <si>
+    <t>countryCode (Value)</t>
+  </si>
+  <si>
+    <t>countryCode (Status)</t>
+  </si>
+  <si>
+    <t>loginStatus (Value)</t>
+  </si>
+  <si>
+    <t>loginStatus (Status)</t>
+  </si>
+  <si>
+    <t>screenOrientation (Value)</t>
+  </si>
+  <si>
+    <t>screenOrientation (Status)</t>
+  </si>
+  <si>
+    <t>userEntitlement (Value)</t>
+  </si>
+  <si>
+    <t>userEntitlement (Status)</t>
+  </si>
+  <si>
+    <t>customerType (Value)</t>
+  </si>
+  <si>
+    <t>customerType (Status)</t>
+  </si>
+  <si>
+    <t>dayhourminute (Value)</t>
+  </si>
+  <si>
+    <t>dayhourminute (Status)</t>
+  </si>
+  <si>
+    <t>profileSetting (Value)</t>
+  </si>
+  <si>
+    <t>profileSetting (Status)</t>
+  </si>
+  <si>
+    <t>mpsessionId (Value)</t>
+  </si>
+  <si>
+    <t>mpsessionId (Status)</t>
+  </si>
+  <si>
+    <t>daid (Value)</t>
+  </si>
+  <si>
+    <t>daid (Status)</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>PeacockMobile-US%205.7.22%20%287442%29</t>
+  </si>
+  <si>
+    <t>?[32m✔?[0m</t>
+  </si>
+  <si>
+    <t>5b2e634ef1a05aa7d8ffd497a5e9e60c32209af1</t>
+  </si>
+  <si>
+    <t>immersive</t>
+  </si>
+  <si>
+    <t>ItcTxOm6Em6Az6x79Jc79hcePde4TQAXZya9SKmW428%3D</t>
+  </si>
+  <si>
+    <t>5.7.22</t>
+  </si>
+  <si>
+    <t>57.1.2</t>
+  </si>
+  <si>
+    <t>apple%3AiPhone14%2C5</t>
+  </si>
+  <si>
+    <t>mobile%20app</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>nbcssott</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>%7Clogged%20in%7C%7C%7C%7C</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>existing</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>?[31m✘?[0m</t>
+  </si>
+  <si>
+    <t>autoplay%3Atrue%7Csubtitle%3Afalse%7Clinked%3Afalse</t>
+  </si>
+  <si>
+    <t>09012810-AF92-4210-BFC6-8909CF476A2F</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>Peacock%20%28Analytics%29%2F5.8.20</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>5.8.20</t>
+  </si>
+  <si>
+    <t>v7.2.3</t>
+  </si>
+  <si>
+    <t>roku3A4800x</t>
+  </si>
+  <si>
+    <t>settop</t>
+  </si>
+  <si>
+    <t>roku</t>
+  </si>
+  <si>
+    <t>landscape</t>
+  </si>
+  <si>
+    <t>autoPlay%3Atrue%7Csubtitle%3Aen%7Clinked%3Afalse</t>
+  </si>
+  <si>
+    <t>367f7c8c-9441-4b75-958f-4b0cc7887afd</t>
+  </si>
+  <si>
+    <t>1c9ceab6-9890-5061-a8bf-ac2c2589f555</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>URL4</t>
   </si>
   <si>
     <t>Brand : Peacock</t>
@@ -869,7 +1109,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,14 +1193,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Display"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Display"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1067,13 +1299,6 @@
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1219,7 +1444,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,12 +1609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1415,12 +1634,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,146 +2861,146 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="91" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="91" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="93" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="95" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="95" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="97" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="98" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="97" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="98" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2956,19 +3169,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3169,7 +3382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3230,10 +3443,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,10 +3473,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3279,7 +3492,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3291,10 +3504,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3306,7 +3519,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3327,7 +3540,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3339,7 +3552,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3367,7 +3580,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3376,7 +3589,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3397,13 +3610,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3414,7 +3627,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3423,16 +3636,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3450,7 +3663,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3471,38 +3684,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3511,7 +3724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3520,27 +3733,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3552,10 +3765,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3564,54 +3777,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3713,7 +3926,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="835660" y="38100"/>
+          <a:off x="895985" y="38100"/>
           <a:ext cx="1968500" cy="748665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3758,7 +3971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2540" y="636270"/>
-          <a:ext cx="1770380" cy="841375"/>
+          <a:ext cx="1830705" cy="841375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3795,7 +4008,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10977880" y="11915775"/>
+          <a:off x="11976100" y="11915775"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3833,7 +4046,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10977880" y="3625850"/>
+          <a:off x="11976100" y="3625850"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3882,7 +4095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="824230" y="47625"/>
+          <a:off x="883285" y="47625"/>
           <a:ext cx="1968500" cy="748665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3926,8 +4139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="118745" y="953770"/>
-          <a:ext cx="1266825" cy="236220"/>
+          <a:off x="121920" y="953770"/>
+          <a:ext cx="1322705" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,8 +4188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="777240" y="180975"/>
-          <a:ext cx="1968500" cy="745490"/>
+          <a:off x="832485" y="180975"/>
+          <a:ext cx="1968500" cy="758190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4013,8 +4226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97155" y="918845"/>
-          <a:ext cx="738505" cy="433705"/>
+          <a:off x="97155" y="931545"/>
+          <a:ext cx="793750" cy="433705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4304,15 +4517,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:AQ153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8363636363636" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="31.8363636363636" customWidth="1"/>
+    <col min="2" max="2" width="31.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="5" max="5" width="94.5" customWidth="1"/>
   </cols>
@@ -6134,6 +6347,661 @@
       <c r="C148" s="280"/>
       <c r="D148" s="280"/>
       <c r="E148" s="287"/>
+    </row>
+    <row r="149" spans="1:43">
+      <c r="A149" t="s">
+        <v>118</v>
+      </c>
+      <c r="B149" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" t="s">
+        <v>122</v>
+      </c>
+      <c r="F149" t="s">
+        <v>123</v>
+      </c>
+      <c r="G149" t="s">
+        <v>124</v>
+      </c>
+      <c r="H149" t="s">
+        <v>125</v>
+      </c>
+      <c r="I149" t="s">
+        <v>126</v>
+      </c>
+      <c r="J149" t="s">
+        <v>127</v>
+      </c>
+      <c r="K149" t="s">
+        <v>128</v>
+      </c>
+      <c r="L149" t="s">
+        <v>129</v>
+      </c>
+      <c r="M149" t="s">
+        <v>130</v>
+      </c>
+      <c r="N149" t="s">
+        <v>131</v>
+      </c>
+      <c r="O149" t="s">
+        <v>132</v>
+      </c>
+      <c r="P149" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>134</v>
+      </c>
+      <c r="R149" t="s">
+        <v>135</v>
+      </c>
+      <c r="S149" t="s">
+        <v>136</v>
+      </c>
+      <c r="T149" t="s">
+        <v>137</v>
+      </c>
+      <c r="U149" t="s">
+        <v>138</v>
+      </c>
+      <c r="V149" t="s">
+        <v>139</v>
+      </c>
+      <c r="W149" t="s">
+        <v>140</v>
+      </c>
+      <c r="X149" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN149" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO149" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP149" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:43">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>164</v>
+      </c>
+      <c r="E150" t="s">
+        <v>163</v>
+      </c>
+      <c r="F150" t="s">
+        <v>165</v>
+      </c>
+      <c r="G150" t="s">
+        <v>163</v>
+      </c>
+      <c r="H150" t="s">
+        <v>165</v>
+      </c>
+      <c r="I150" t="s">
+        <v>163</v>
+      </c>
+      <c r="J150" t="s">
+        <v>166</v>
+      </c>
+      <c r="K150" t="s">
+        <v>163</v>
+      </c>
+      <c r="L150" t="s">
+        <v>167</v>
+      </c>
+      <c r="M150" t="s">
+        <v>163</v>
+      </c>
+      <c r="N150" t="s">
+        <v>168</v>
+      </c>
+      <c r="O150" t="s">
+        <v>163</v>
+      </c>
+      <c r="P150" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>163</v>
+      </c>
+      <c r="R150" t="s">
+        <v>170</v>
+      </c>
+      <c r="S150" t="s">
+        <v>163</v>
+      </c>
+      <c r="T150" t="s">
+        <v>171</v>
+      </c>
+      <c r="U150" t="s">
+        <v>163</v>
+      </c>
+      <c r="V150" t="s">
+        <v>172</v>
+      </c>
+      <c r="W150" t="s">
+        <v>163</v>
+      </c>
+      <c r="X150" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN150" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:43">
+      <c r="A151" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" t="s">
+        <v>178</v>
+      </c>
+      <c r="E151" t="s">
+        <v>179</v>
+      </c>
+      <c r="F151" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" t="s">
+        <v>163</v>
+      </c>
+      <c r="H151" t="s">
+        <v>186</v>
+      </c>
+      <c r="I151" t="s">
+        <v>163</v>
+      </c>
+      <c r="J151" t="s">
+        <v>178</v>
+      </c>
+      <c r="K151" t="s">
+        <v>179</v>
+      </c>
+      <c r="L151" t="s">
+        <v>187</v>
+      </c>
+      <c r="M151" t="s">
+        <v>163</v>
+      </c>
+      <c r="N151" t="s">
+        <v>188</v>
+      </c>
+      <c r="O151" t="s">
+        <v>163</v>
+      </c>
+      <c r="P151" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>163</v>
+      </c>
+      <c r="R151" t="s">
+        <v>190</v>
+      </c>
+      <c r="S151" t="s">
+        <v>163</v>
+      </c>
+      <c r="T151" t="s">
+        <v>191</v>
+      </c>
+      <c r="U151" t="s">
+        <v>163</v>
+      </c>
+      <c r="V151" t="s">
+        <v>172</v>
+      </c>
+      <c r="W151" t="s">
+        <v>163</v>
+      </c>
+      <c r="X151" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO151" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP151" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ151" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:43">
+      <c r="A152" t="s">
+        <v>196</v>
+      </c>
+      <c r="B152" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
+        <v>178</v>
+      </c>
+      <c r="E152" t="s">
+        <v>179</v>
+      </c>
+      <c r="F152" t="s">
+        <v>185</v>
+      </c>
+      <c r="G152" t="s">
+        <v>163</v>
+      </c>
+      <c r="H152" t="s">
+        <v>186</v>
+      </c>
+      <c r="I152" t="s">
+        <v>163</v>
+      </c>
+      <c r="J152" t="s">
+        <v>178</v>
+      </c>
+      <c r="K152" t="s">
+        <v>179</v>
+      </c>
+      <c r="L152" t="s">
+        <v>187</v>
+      </c>
+      <c r="M152" t="s">
+        <v>163</v>
+      </c>
+      <c r="N152" t="s">
+        <v>188</v>
+      </c>
+      <c r="O152" t="s">
+        <v>163</v>
+      </c>
+      <c r="P152" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>179</v>
+      </c>
+      <c r="R152" t="s">
+        <v>190</v>
+      </c>
+      <c r="S152" t="s">
+        <v>163</v>
+      </c>
+      <c r="T152" t="s">
+        <v>191</v>
+      </c>
+      <c r="U152" t="s">
+        <v>163</v>
+      </c>
+      <c r="V152" t="s">
+        <v>172</v>
+      </c>
+      <c r="W152" t="s">
+        <v>163</v>
+      </c>
+      <c r="X152" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:43">
+      <c r="A153" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
+        <v>178</v>
+      </c>
+      <c r="E153" t="s">
+        <v>179</v>
+      </c>
+      <c r="F153" t="s">
+        <v>185</v>
+      </c>
+      <c r="G153" t="s">
+        <v>163</v>
+      </c>
+      <c r="H153" t="s">
+        <v>186</v>
+      </c>
+      <c r="I153" t="s">
+        <v>163</v>
+      </c>
+      <c r="J153" t="s">
+        <v>178</v>
+      </c>
+      <c r="K153" t="s">
+        <v>179</v>
+      </c>
+      <c r="L153" t="s">
+        <v>187</v>
+      </c>
+      <c r="M153" t="s">
+        <v>163</v>
+      </c>
+      <c r="N153" t="s">
+        <v>188</v>
+      </c>
+      <c r="O153" t="s">
+        <v>163</v>
+      </c>
+      <c r="P153" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>163</v>
+      </c>
+      <c r="R153" t="s">
+        <v>190</v>
+      </c>
+      <c r="S153" t="s">
+        <v>163</v>
+      </c>
+      <c r="T153" t="s">
+        <v>178</v>
+      </c>
+      <c r="U153" t="s">
+        <v>179</v>
+      </c>
+      <c r="V153" t="s">
+        <v>172</v>
+      </c>
+      <c r="W153" t="s">
+        <v>163</v>
+      </c>
+      <c r="X153" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO153" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP153" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ153" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6159,15 +7027,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8363636363636" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="31.8363636363636" customWidth="1"/>
+    <col min="2" max="2" width="31.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7465,7 +8333,6 @@
       <c r="B130" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="270"/>
       <c r="D130" s="271"/>
     </row>
     <row r="131" spans="1:4">
@@ -7475,7 +8342,6 @@
       <c r="B131" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C131" s="270"/>
       <c r="D131" s="271"/>
     </row>
     <row r="132" spans="1:4">
@@ -7635,7 +8501,6 @@
       <c r="B147" s="278" t="s">
         <v>101</v>
       </c>
-      <c r="C147" s="271"/>
       <c r="D147" s="271"/>
     </row>
     <row r="148" spans="1:4">
@@ -7645,8 +8510,11 @@
       <c r="B148" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="280"/>
+      <c r="C148" s="270"/>
       <c r="D148" s="280"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7669,16 +8537,16 @@
       <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="0.663636363636364" customWidth="1"/>
+    <col min="1" max="1" width="0.666666666666667" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1636363636364" customWidth="1"/>
-    <col min="7" max="7" width="50.3363636363636" customWidth="1"/>
-    <col min="8" max="8" width="15.8363636363636" customWidth="1"/>
+    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="50.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.8333333333333" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="24.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="5:10">
@@ -7693,11 +8561,11 @@
       <c r="B2" s="130"/>
       <c r="C2" s="131"/>
       <c r="D2" s="132" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="E2" s="133"/>
       <c r="F2" s="134" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="135"/>
@@ -7709,10 +8577,10 @@
       <c r="B3" s="136"/>
       <c r="C3" s="137"/>
       <c r="D3" s="138" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E3" s="234" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="F3" s="140"/>
       <c r="G3" s="141"/>
@@ -7725,7 +8593,7 @@
       <c r="B4" s="136"/>
       <c r="C4" s="137"/>
       <c r="D4" s="138" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="E4" s="235">
         <v>45419</v>
@@ -7741,10 +8609,10 @@
       <c r="B5" s="144"/>
       <c r="C5" s="145"/>
       <c r="D5" s="146" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="E5" s="236" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="F5" s="148"/>
       <c r="G5" s="149"/>
@@ -7767,36 +8635,36 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:10">
       <c r="B7" s="154" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D7" s="154" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="E7" s="154" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="F7" s="154" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="G7" s="154" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="H7" s="154" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="I7" s="154" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="J7" s="154" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:10">
       <c r="B8" s="155" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="156"/>
@@ -7812,21 +8680,21 @@
         <v>1.1</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D9" s="160" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E9" s="161" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F9" s="237" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G9" s="238"/>
       <c r="H9" s="239"/>
       <c r="I9" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J9" s="249"/>
     </row>
@@ -7834,20 +8702,20 @@
       <c r="B10" s="165"/>
       <c r="C10" s="166"/>
       <c r="D10" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E10" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F10" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G10" s="238" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="H10" s="239"/>
       <c r="I10" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J10" s="250"/>
     </row>
@@ -7855,20 +8723,20 @@
       <c r="B11" s="165"/>
       <c r="C11" s="171"/>
       <c r="D11" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E11" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F11" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G11" s="238" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="H11" s="239"/>
       <c r="I11" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J11" s="250"/>
     </row>
@@ -7877,21 +8745,21 @@
         <v>1.2</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="D12" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E12" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F12" s="241" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G12" s="238"/>
       <c r="H12" s="239"/>
       <c r="I12" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J12" s="250"/>
     </row>
@@ -7899,20 +8767,20 @@
       <c r="B13" s="165"/>
       <c r="C13" s="166"/>
       <c r="D13" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E13" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F13" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G13" s="238" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="H13" s="239"/>
       <c r="I13" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J13" s="250"/>
     </row>
@@ -7920,20 +8788,20 @@
       <c r="B14" s="165"/>
       <c r="C14" s="166"/>
       <c r="D14" s="167" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E14" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F14" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G14" s="238" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="H14" s="239"/>
       <c r="I14" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J14" s="250"/>
     </row>
@@ -7941,20 +8809,20 @@
       <c r="B15" s="165"/>
       <c r="C15" s="166"/>
       <c r="D15" s="167" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="E15" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F15" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G15" s="238" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="H15" s="239"/>
       <c r="I15" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J15" s="250"/>
     </row>
@@ -7963,21 +8831,21 @@
         <v>1.3</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D16" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E16" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F16" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G16" s="238"/>
       <c r="H16" s="239"/>
       <c r="I16" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J16" s="250"/>
     </row>
@@ -7985,20 +8853,20 @@
       <c r="B17" s="165"/>
       <c r="C17" s="166"/>
       <c r="D17" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E17" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F17" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G17" s="238" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="H17" s="239"/>
       <c r="I17" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J17" s="250"/>
     </row>
@@ -8006,20 +8874,20 @@
       <c r="B18" s="165"/>
       <c r="C18" s="166"/>
       <c r="D18" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E18" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F18" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G18" s="238" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="H18" s="239"/>
       <c r="I18" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J18" s="250"/>
     </row>
@@ -8028,21 +8896,21 @@
         <v>1.4</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E19" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F19" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G19" s="238"/>
       <c r="H19" s="239"/>
       <c r="I19" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J19" s="250"/>
     </row>
@@ -8050,20 +8918,20 @@
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
       <c r="D20" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F20" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G20" s="238" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="H20" s="239"/>
       <c r="I20" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J20" s="250"/>
     </row>
@@ -8071,20 +8939,20 @@
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
       <c r="D21" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E21" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F21" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G21" s="238" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="H21" s="239"/>
       <c r="I21" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J21" s="250"/>
     </row>
@@ -8093,23 +8961,23 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="E22" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F22" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G22" s="238" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="H22" s="239"/>
       <c r="I22" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J22" s="250"/>
     </row>
@@ -8117,20 +8985,20 @@
       <c r="B23" s="165"/>
       <c r="C23" s="166"/>
       <c r="D23" s="167" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="E23" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F23" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G23" s="238" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="H23" s="239"/>
       <c r="I23" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J23" s="250"/>
     </row>
@@ -8138,20 +9006,20 @@
       <c r="B24" s="165"/>
       <c r="C24" s="166"/>
       <c r="D24" s="167" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E24" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F24" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G24" s="238" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="H24" s="239"/>
       <c r="I24" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J24" s="250"/>
     </row>
@@ -8159,20 +9027,20 @@
       <c r="B25" s="165"/>
       <c r="C25" s="166"/>
       <c r="D25" s="167" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E25" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F25" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G25" s="238" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="H25" s="239"/>
       <c r="I25" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J25" s="250"/>
     </row>
@@ -8180,20 +9048,20 @@
       <c r="B26" s="165"/>
       <c r="C26" s="166"/>
       <c r="D26" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E26" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F26" s="241" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G26" s="238" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="H26" s="239"/>
       <c r="I26" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J26" s="250"/>
     </row>
@@ -8201,20 +9069,20 @@
       <c r="B27" s="165"/>
       <c r="C27" s="166"/>
       <c r="D27" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E27" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F27" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G27" s="238" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="H27" s="239"/>
       <c r="I27" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J27" s="250"/>
     </row>
@@ -8223,21 +9091,21 @@
         <v>1.6</v>
       </c>
       <c r="C28" s="166" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="D28" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E28" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F28" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G28" s="238"/>
       <c r="H28" s="239"/>
       <c r="I28" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J28" s="250"/>
     </row>
@@ -8245,20 +9113,20 @@
       <c r="B29" s="165"/>
       <c r="C29" s="166"/>
       <c r="D29" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E29" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F29" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G29" s="238" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="H29" s="239"/>
       <c r="I29" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J29" s="250"/>
     </row>
@@ -8266,20 +9134,20 @@
       <c r="B30" s="165"/>
       <c r="C30" s="166"/>
       <c r="D30" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E30" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F30" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G30" s="238" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H30" s="239"/>
       <c r="I30" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J30" s="250"/>
     </row>
@@ -8288,21 +9156,21 @@
         <v>1.7</v>
       </c>
       <c r="C31" s="166" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="D31" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E31" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F31" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G31" s="238"/>
       <c r="H31" s="239"/>
       <c r="I31" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J31" s="250"/>
     </row>
@@ -8310,20 +9178,20 @@
       <c r="B32" s="165"/>
       <c r="C32" s="166"/>
       <c r="D32" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F32" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G32" s="238" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="H32" s="239"/>
       <c r="I32" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J32" s="250"/>
     </row>
@@ -8331,20 +9199,20 @@
       <c r="B33" s="165"/>
       <c r="C33" s="166"/>
       <c r="D33" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E33" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F33" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G33" s="238" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="H33" s="239"/>
       <c r="I33" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J33" s="250"/>
     </row>
@@ -8353,23 +9221,23 @@
         <v>1.8</v>
       </c>
       <c r="C34" s="166" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="D34" s="167" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="E34" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F34" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G34" s="238" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="H34" s="239"/>
       <c r="I34" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J34" s="250"/>
     </row>
@@ -8377,20 +9245,20 @@
       <c r="B35" s="165"/>
       <c r="C35" s="166"/>
       <c r="D35" s="167" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="E35" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F35" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G35" s="238" t="s">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="H35" s="239"/>
       <c r="I35" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J35" s="250"/>
     </row>
@@ -8398,20 +9266,20 @@
       <c r="B36" s="165"/>
       <c r="C36" s="166"/>
       <c r="D36" s="167" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E36" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F36" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G36" s="238" t="s">
         <v>114</v>
       </c>
       <c r="H36" s="239"/>
       <c r="I36" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J36" s="250"/>
     </row>
@@ -8419,20 +9287,20 @@
       <c r="B37" s="165"/>
       <c r="C37" s="166"/>
       <c r="D37" s="167" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F37" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G37" s="238" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="H37" s="239"/>
       <c r="I37" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J37" s="250"/>
     </row>
@@ -8440,20 +9308,20 @@
       <c r="B38" s="165"/>
       <c r="C38" s="166"/>
       <c r="D38" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F38" s="241" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G38" s="238" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="H38" s="239"/>
       <c r="I38" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J38" s="250"/>
     </row>
@@ -8461,20 +9329,20 @@
       <c r="B39" s="165"/>
       <c r="C39" s="166"/>
       <c r="D39" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E39" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F39" s="242" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G39" s="238" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="H39" s="239"/>
       <c r="I39" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J39" s="250"/>
     </row>
@@ -8483,16 +9351,16 @@
         <v>1.9</v>
       </c>
       <c r="C40" s="166" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="D40" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E40" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F40" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G40" s="243"/>
       <c r="H40" s="239"/>
@@ -8503,13 +9371,13 @@
       <c r="B41" s="165"/>
       <c r="C41" s="166"/>
       <c r="D41" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E41" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F41" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G41" s="243"/>
       <c r="H41" s="239"/>
@@ -8520,13 +9388,13 @@
       <c r="B42" s="175"/>
       <c r="C42" s="176"/>
       <c r="D42" s="57" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E42" s="177" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F42" s="244" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G42" s="243"/>
       <c r="H42" s="239"/>
@@ -8535,7 +9403,7 @@
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:10">
       <c r="B43" s="180" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="C43" s="181"/>
       <c r="D43" s="156"/>
@@ -8551,23 +9419,23 @@
         <v>2.1</v>
       </c>
       <c r="C44" s="159" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="D44" s="160" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E44" s="161" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F44" s="237" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G44" s="245" t="s">
         <v>32</v>
       </c>
       <c r="H44" s="164"/>
       <c r="I44" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J44" s="252"/>
     </row>
@@ -8576,23 +9444,23 @@
         <v>2.2</v>
       </c>
       <c r="C45" s="166" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="D45" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E45" s="168" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F45" s="240" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G45" s="245" t="s">
         <v>71</v>
       </c>
       <c r="H45" s="170"/>
       <c r="I45" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J45" s="253"/>
     </row>
@@ -8601,23 +9469,23 @@
         <v>2.3</v>
       </c>
       <c r="C46" s="166" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="D46" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E46" s="168" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F46" s="240" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G46" s="245" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="H46" s="170"/>
       <c r="I46" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J46" s="253"/>
     </row>
@@ -8626,21 +9494,21 @@
         <v>2.4</v>
       </c>
       <c r="C47" s="171" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="D47" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E47" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F47" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G47" s="245"/>
       <c r="H47" s="239"/>
       <c r="I47" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J47" s="253"/>
     </row>
@@ -8648,20 +9516,20 @@
       <c r="B48" s="192"/>
       <c r="C48" s="193"/>
       <c r="D48" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E48" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F48" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G48" s="245" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="H48" s="170"/>
       <c r="I48" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J48" s="253"/>
     </row>
@@ -8669,20 +9537,20 @@
       <c r="B49" s="158"/>
       <c r="C49" s="159"/>
       <c r="D49" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E49" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F49" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G49" s="245" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="H49" s="170"/>
       <c r="I49" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J49" s="253"/>
     </row>
@@ -8691,23 +9559,23 @@
         <v>2.5</v>
       </c>
       <c r="C50" s="166" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="D50" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E50" s="168" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F50" s="240" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G50" s="245" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="H50" s="170"/>
       <c r="I50" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J50" s="253"/>
     </row>
@@ -8716,21 +9584,21 @@
         <v>2.6</v>
       </c>
       <c r="C51" s="171" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="D51" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E51" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F51" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G51" s="245"/>
       <c r="H51" s="239"/>
       <c r="I51" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J51" s="253"/>
     </row>
@@ -8738,20 +9606,20 @@
       <c r="B52" s="192"/>
       <c r="C52" s="193"/>
       <c r="D52" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E52" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F52" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G52" s="245" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="H52" s="170"/>
       <c r="I52" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J52" s="253"/>
     </row>
@@ -8759,20 +9627,20 @@
       <c r="B53" s="158"/>
       <c r="C53" s="159"/>
       <c r="D53" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E53" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F53" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G53" s="245" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="H53" s="170"/>
       <c r="I53" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J53" s="253"/>
     </row>
@@ -8781,23 +9649,23 @@
         <v>2.7</v>
       </c>
       <c r="C54" s="166" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D54" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E54" s="168" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F54" s="240" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G54" s="246" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="H54" s="170"/>
       <c r="I54" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J54" s="253"/>
     </row>
@@ -8806,21 +9674,21 @@
         <v>2.8</v>
       </c>
       <c r="C55" s="171" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="D55" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E55" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F55" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G55" s="246"/>
       <c r="H55" s="170"/>
       <c r="I55" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J55" s="253"/>
     </row>
@@ -8828,20 +9696,20 @@
       <c r="B56" s="192"/>
       <c r="C56" s="193"/>
       <c r="D56" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E56" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F56" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G56" s="246" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="H56" s="170"/>
       <c r="I56" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J56" s="253"/>
     </row>
@@ -8849,20 +9717,20 @@
       <c r="B57" s="158"/>
       <c r="C57" s="159"/>
       <c r="D57" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E57" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F57" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G57" s="246" t="s">
         <v>96</v>
       </c>
       <c r="H57" s="170"/>
       <c r="I57" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J57" s="253"/>
     </row>
@@ -8871,21 +9739,21 @@
         <v>2.9</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="D58" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E58" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F58" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G58" s="247"/>
       <c r="H58" s="239"/>
       <c r="I58" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J58" s="253"/>
     </row>
@@ -8893,20 +9761,20 @@
       <c r="B59" s="192"/>
       <c r="C59" s="194"/>
       <c r="D59" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E59" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F59" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G59" s="245" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="H59" s="170"/>
       <c r="I59" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J59" s="253"/>
     </row>
@@ -8914,26 +9782,26 @@
       <c r="B60" s="158"/>
       <c r="C60" s="160"/>
       <c r="D60" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E60" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F60" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G60" s="245" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="H60" s="170"/>
       <c r="I60" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J60" s="253"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="2:10">
       <c r="B61" s="155" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C61" s="156"/>
       <c r="D61" s="156"/>
@@ -8949,23 +9817,23 @@
         <v>3.1</v>
       </c>
       <c r="C62" s="160" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D62" s="160" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E62" s="161" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F62" s="237" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G62" s="245" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="H62" s="164"/>
       <c r="I62" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J62" s="252"/>
     </row>
@@ -8974,23 +9842,23 @@
         <v>3.2</v>
       </c>
       <c r="C63" s="167" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D63" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E63" s="168" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F63" s="240" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G63" s="245" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="H63" s="170"/>
       <c r="I63" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J63" s="253"/>
     </row>
@@ -8999,21 +9867,21 @@
         <v>3.3</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D64" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E64" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F64" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G64" s="245"/>
       <c r="H64" s="239"/>
       <c r="I64" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J64" s="253"/>
     </row>
@@ -9021,20 +9889,20 @@
       <c r="B65" s="217"/>
       <c r="C65" s="194"/>
       <c r="D65" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E65" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F65" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G65" s="245" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="H65" s="170"/>
       <c r="I65" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J65" s="253"/>
     </row>
@@ -9042,20 +9910,20 @@
       <c r="B66" s="195"/>
       <c r="C66" s="160"/>
       <c r="D66" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E66" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F66" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G66" s="245" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="H66" s="170"/>
       <c r="I66" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J66" s="253"/>
     </row>
@@ -9064,21 +9932,21 @@
         <v>3.4</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D67" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E67" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F67" s="240" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G67" s="245"/>
       <c r="H67" s="239"/>
       <c r="I67" s="248" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="J67" s="253"/>
     </row>
@@ -9086,20 +9954,20 @@
       <c r="B68" s="217"/>
       <c r="C68" s="194"/>
       <c r="D68" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E68" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F68" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G68" s="245" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="H68" s="170"/>
       <c r="I68" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J68" s="253"/>
     </row>
@@ -9107,20 +9975,20 @@
       <c r="B69" s="195"/>
       <c r="C69" s="160"/>
       <c r="D69" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E69" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F69" s="240" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G69" s="245" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="H69" s="170"/>
       <c r="I69" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J69" s="253"/>
     </row>
@@ -9129,19 +9997,19 @@
         <v>3.5</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="E70" s="177" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F70" s="244" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G70" s="245" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="H70" s="179"/>
       <c r="I70" s="262"/>
@@ -9149,7 +10017,7 @@
     </row>
     <row r="71" ht="20" customHeight="1" spans="2:10">
       <c r="B71" s="155" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C71" s="156"/>
       <c r="D71" s="156"/>
@@ -9165,16 +10033,16 @@
         <v>4.1</v>
       </c>
       <c r="C72" s="160" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D72" s="160" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E72" s="160" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F72" s="254" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G72" s="255"/>
       <c r="H72" s="164"/>
@@ -9186,23 +10054,23 @@
         <v>4.2</v>
       </c>
       <c r="C73" s="197" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D73" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E73" s="160" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F73" s="256" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G73" s="257" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="H73" s="170"/>
       <c r="I73" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J73" s="253"/>
     </row>
@@ -9211,23 +10079,23 @@
         <v>4.3</v>
       </c>
       <c r="C74" s="197" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D74" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E74" s="167" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F74" s="256" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G74" s="258" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="H74" s="170"/>
       <c r="I74" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J74" s="253"/>
     </row>
@@ -9236,16 +10104,16 @@
         <v>4.4</v>
       </c>
       <c r="C75" s="197" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="D75" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E75" s="167" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="F75" s="256" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G75" s="259"/>
       <c r="H75" s="170"/>
@@ -9257,23 +10125,23 @@
         <v>4.5</v>
       </c>
       <c r="C76" s="197" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D76" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E76" s="167" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F76" s="256" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G76" s="257" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="H76" s="170"/>
       <c r="I76" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J76" s="253"/>
     </row>
@@ -9282,23 +10150,23 @@
         <v>4.6</v>
       </c>
       <c r="C77" s="197" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D77" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E77" s="167" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F77" s="256" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G77" s="257" t="s">
         <v>7</v>
       </c>
       <c r="H77" s="170"/>
       <c r="I77" s="205" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="J77" s="253"/>
     </row>
@@ -9307,16 +10175,16 @@
         <v>4.7</v>
       </c>
       <c r="C78" s="225" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="D78" s="260" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E78" s="260" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="F78" s="261" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G78" s="255"/>
       <c r="H78" s="229"/>
@@ -9444,16 +10312,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="0.5" customWidth="1"/>
-    <col min="3" max="3" width="61.8363636363636" customWidth="1"/>
+    <col min="3" max="3" width="61.8333333333333" customWidth="1"/>
     <col min="4" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="49.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="49.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
-    <col min="8" max="8" width="15.8363636363636" customWidth="1"/>
+    <col min="8" max="8" width="15.8333333333333" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="24.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="3.75" customHeight="1" spans="5:10">
@@ -9468,11 +10336,11 @@
       <c r="B2" s="130"/>
       <c r="C2" s="131"/>
       <c r="D2" s="132" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="E2" s="133"/>
       <c r="F2" s="134" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="135"/>
@@ -9484,7 +10352,7 @@
       <c r="B3" s="136"/>
       <c r="C3" s="137"/>
       <c r="D3" s="138" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E3" s="139"/>
       <c r="F3" s="140"/>
@@ -9498,7 +10366,7 @@
       <c r="B4" s="136"/>
       <c r="C4" s="137"/>
       <c r="D4" s="142" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="E4" s="143"/>
       <c r="F4" s="141"/>
@@ -9512,7 +10380,7 @@
       <c r="B5" s="144"/>
       <c r="C5" s="145"/>
       <c r="D5" s="146" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="E5" s="147"/>
       <c r="F5" s="148"/>
@@ -9536,36 +10404,36 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:10">
       <c r="B7" s="154" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D7" s="154" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="E7" s="154" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="F7" s="154" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="G7" s="154" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="H7" s="154" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="I7" s="154" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="J7" s="154" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:10">
       <c r="B8" s="155" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="156"/>
@@ -9581,16 +10449,16 @@
         <v>1.1</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D9" s="160" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E9" s="161" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F9" s="162" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G9" s="163"/>
       <c r="H9" s="164"/>
@@ -9601,13 +10469,13 @@
       <c r="B10" s="165"/>
       <c r="C10" s="166"/>
       <c r="D10" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E10" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F10" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G10" s="163"/>
       <c r="H10" s="170"/>
@@ -9618,13 +10486,13 @@
       <c r="B11" s="165"/>
       <c r="C11" s="171"/>
       <c r="D11" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E11" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G11" s="163"/>
       <c r="H11" s="170"/>
@@ -9636,16 +10504,16 @@
         <v>1.2</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="D12" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E12" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F12" s="173" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G12" s="163"/>
       <c r="H12" s="170"/>
@@ -9656,13 +10524,13 @@
       <c r="B13" s="165"/>
       <c r="C13" s="166"/>
       <c r="D13" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E13" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F13" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G13" s="163"/>
       <c r="H13" s="170"/>
@@ -9673,13 +10541,13 @@
       <c r="B14" s="165"/>
       <c r="C14" s="166"/>
       <c r="D14" s="167" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E14" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F14" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G14" s="163"/>
       <c r="H14" s="170"/>
@@ -9690,13 +10558,13 @@
       <c r="B15" s="165"/>
       <c r="C15" s="166"/>
       <c r="D15" s="167" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="E15" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F15" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G15" s="163"/>
       <c r="H15" s="170"/>
@@ -9708,16 +10576,16 @@
         <v>1.3</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D16" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E16" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F16" s="169" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G16" s="163"/>
       <c r="H16" s="170"/>
@@ -9728,13 +10596,13 @@
       <c r="B17" s="165"/>
       <c r="C17" s="166"/>
       <c r="D17" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E17" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F17" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G17" s="163"/>
       <c r="H17" s="170"/>
@@ -9745,13 +10613,13 @@
       <c r="B18" s="165"/>
       <c r="C18" s="166"/>
       <c r="D18" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E18" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G18" s="163"/>
       <c r="H18" s="170"/>
@@ -9763,16 +10631,16 @@
         <v>1.4</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E19" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F19" s="169" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G19" s="163"/>
       <c r="H19" s="170"/>
@@ -9783,13 +10651,13 @@
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
       <c r="D20" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F20" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G20" s="163"/>
       <c r="H20" s="170"/>
@@ -9800,13 +10668,13 @@
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
       <c r="D21" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E21" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F21" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G21" s="163"/>
       <c r="H21" s="170"/>
@@ -9818,16 +10686,16 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="E22" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F22" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G22" s="163"/>
       <c r="H22" s="170"/>
@@ -9838,13 +10706,13 @@
       <c r="B23" s="165"/>
       <c r="C23" s="166"/>
       <c r="D23" s="167" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="E23" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F23" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G23" s="163"/>
       <c r="H23" s="170"/>
@@ -9855,13 +10723,13 @@
       <c r="B24" s="165"/>
       <c r="C24" s="166"/>
       <c r="D24" s="167" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E24" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F24" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G24" s="163"/>
       <c r="H24" s="170"/>
@@ -9872,13 +10740,13 @@
       <c r="B25" s="165"/>
       <c r="C25" s="166"/>
       <c r="D25" s="167" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E25" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F25" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G25" s="163"/>
       <c r="H25" s="170"/>
@@ -9889,13 +10757,13 @@
       <c r="B26" s="165"/>
       <c r="C26" s="166"/>
       <c r="D26" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E26" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F26" s="173" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G26" s="163"/>
       <c r="H26" s="170"/>
@@ -9906,13 +10774,13 @@
       <c r="B27" s="165"/>
       <c r="C27" s="166"/>
       <c r="D27" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E27" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F27" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G27" s="163"/>
       <c r="H27" s="170"/>
@@ -9924,16 +10792,16 @@
         <v>1.6</v>
       </c>
       <c r="C28" s="166" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="D28" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E28" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F28" s="169" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G28" s="163"/>
       <c r="H28" s="170"/>
@@ -9944,13 +10812,13 @@
       <c r="B29" s="165"/>
       <c r="C29" s="166"/>
       <c r="D29" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E29" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F29" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G29" s="163"/>
       <c r="H29" s="170"/>
@@ -9961,13 +10829,13 @@
       <c r="B30" s="165"/>
       <c r="C30" s="166"/>
       <c r="D30" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E30" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F30" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G30" s="163"/>
       <c r="H30" s="170"/>
@@ -9979,16 +10847,16 @@
         <v>1.7</v>
       </c>
       <c r="C31" s="166" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="D31" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E31" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F31" s="169" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G31" s="163"/>
       <c r="H31" s="170"/>
@@ -9999,13 +10867,13 @@
       <c r="B32" s="165"/>
       <c r="C32" s="166"/>
       <c r="D32" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F32" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G32" s="163"/>
       <c r="H32" s="170"/>
@@ -10016,13 +10884,13 @@
       <c r="B33" s="165"/>
       <c r="C33" s="166"/>
       <c r="D33" s="167" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E33" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F33" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G33" s="163"/>
       <c r="H33" s="170"/>
@@ -10034,16 +10902,16 @@
         <v>1.8</v>
       </c>
       <c r="C34" s="166" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="D34" s="167" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="E34" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F34" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G34" s="163"/>
       <c r="H34" s="170"/>
@@ -10054,13 +10922,13 @@
       <c r="B35" s="165"/>
       <c r="C35" s="166"/>
       <c r="D35" s="167" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="E35" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F35" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G35" s="163"/>
       <c r="H35" s="170"/>
@@ -10071,13 +10939,13 @@
       <c r="B36" s="165"/>
       <c r="C36" s="166"/>
       <c r="D36" s="167" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E36" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F36" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="170"/>
@@ -10088,13 +10956,13 @@
       <c r="B37" s="165"/>
       <c r="C37" s="166"/>
       <c r="D37" s="167" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F37" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G37" s="163"/>
       <c r="H37" s="170"/>
@@ -10105,13 +10973,13 @@
       <c r="B38" s="165"/>
       <c r="C38" s="166"/>
       <c r="D38" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F38" s="173" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="170"/>
@@ -10122,13 +10990,13 @@
       <c r="B39" s="165"/>
       <c r="C39" s="166"/>
       <c r="D39" s="167" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E39" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F39" s="174" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G39" s="163"/>
       <c r="H39" s="170"/>
@@ -10140,16 +11008,16 @@
         <v>1.9</v>
       </c>
       <c r="C40" s="166" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="D40" s="167" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E40" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F40" s="169" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="170"/>
@@ -10160,13 +11028,13 @@
       <c r="B41" s="165"/>
       <c r="C41" s="166"/>
       <c r="D41" s="167" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E41" s="168" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F41" s="169" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G41" s="163"/>
       <c r="H41" s="170"/>
@@ -10177,13 +11045,13 @@
       <c r="B42" s="175"/>
       <c r="C42" s="176"/>
       <c r="D42" s="57" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E42" s="177" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F42" s="178" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G42" s="163"/>
       <c r="H42" s="179"/>
@@ -10192,7 +11060,7 @@
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:10">
       <c r="B43" s="180" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="C43" s="181"/>
       <c r="D43" s="156"/>
@@ -10208,16 +11076,16 @@
         <v>2.1</v>
       </c>
       <c r="C44" s="159" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="D44" s="183" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E44" s="184" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F44" s="185" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G44" s="163"/>
       <c r="H44" s="164"/>
@@ -10229,16 +11097,16 @@
         <v>2.2</v>
       </c>
       <c r="C45" s="166" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="D45" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E45" s="188" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F45" s="189" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G45" s="163"/>
       <c r="H45" s="170"/>
@@ -10250,16 +11118,16 @@
         <v>2.3</v>
       </c>
       <c r="C46" s="166" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="D46" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E46" s="188" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F46" s="189" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G46" s="163"/>
       <c r="H46" s="170"/>
@@ -10271,16 +11139,16 @@
         <v>2.4</v>
       </c>
       <c r="C47" s="171" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="D47" s="191" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E47" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F47" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G47" s="163"/>
       <c r="H47" s="170"/>
@@ -10291,13 +11159,13 @@
       <c r="B48" s="192"/>
       <c r="C48" s="193"/>
       <c r="D48" s="191" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E48" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F48" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G48" s="163"/>
       <c r="H48" s="170"/>
@@ -10308,13 +11176,13 @@
       <c r="B49" s="158"/>
       <c r="C49" s="159"/>
       <c r="D49" s="191" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E49" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F49" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G49" s="163"/>
       <c r="H49" s="170"/>
@@ -10326,16 +11194,16 @@
         <v>2.5</v>
       </c>
       <c r="C50" s="166" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="D50" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E50" s="188" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F50" s="189" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G50" s="163"/>
       <c r="H50" s="170"/>
@@ -10347,16 +11215,16 @@
         <v>2.6</v>
       </c>
       <c r="C51" s="171" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="D51" s="191" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E51" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F51" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G51" s="163"/>
       <c r="H51" s="170"/>
@@ -10367,13 +11235,13 @@
       <c r="B52" s="192"/>
       <c r="C52" s="193"/>
       <c r="D52" s="191" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F52" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G52" s="163"/>
       <c r="H52" s="170"/>
@@ -10384,13 +11252,13 @@
       <c r="B53" s="158"/>
       <c r="C53" s="159"/>
       <c r="D53" s="191" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E53" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F53" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G53" s="163"/>
       <c r="H53" s="170"/>
@@ -10402,16 +11270,16 @@
         <v>2.7</v>
       </c>
       <c r="C54" s="166" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D54" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E54" s="188" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F54" s="189" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G54" s="163"/>
       <c r="H54" s="170"/>
@@ -10423,16 +11291,16 @@
         <v>2.8</v>
       </c>
       <c r="C55" s="171" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="D55" s="191" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E55" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F55" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G55" s="163"/>
       <c r="H55" s="170"/>
@@ -10443,13 +11311,13 @@
       <c r="B56" s="192"/>
       <c r="C56" s="193"/>
       <c r="D56" s="191" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E56" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F56" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G56" s="163"/>
       <c r="H56" s="170"/>
@@ -10460,13 +11328,13 @@
       <c r="B57" s="158"/>
       <c r="C57" s="159"/>
       <c r="D57" s="191" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E57" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F57" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G57" s="163"/>
       <c r="H57" s="170"/>
@@ -10478,16 +11346,16 @@
         <v>2.9</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="D58" s="191" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E58" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F58" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G58" s="163"/>
       <c r="H58" s="170"/>
@@ -10498,13 +11366,13 @@
       <c r="B59" s="192"/>
       <c r="C59" s="194"/>
       <c r="D59" s="191" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E59" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F59" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G59" s="163"/>
       <c r="H59" s="170"/>
@@ -10515,13 +11383,13 @@
       <c r="B60" s="158"/>
       <c r="C60" s="160"/>
       <c r="D60" s="191" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E60" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F60" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G60" s="163"/>
       <c r="H60" s="170"/>
@@ -10530,7 +11398,7 @@
     </row>
     <row r="61" ht="20" customHeight="1" spans="2:10">
       <c r="B61" s="155" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C61" s="156"/>
       <c r="D61" s="156"/>
@@ -10546,16 +11414,16 @@
         <v>3.1</v>
       </c>
       <c r="C62" s="160" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D62" s="160" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E62" s="184" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F62" s="185" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G62" s="163"/>
       <c r="H62" s="164"/>
@@ -10567,16 +11435,16 @@
         <v>3.2</v>
       </c>
       <c r="C63" s="167" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D63" s="167" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E63" s="188" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F63" s="189" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G63" s="163"/>
       <c r="H63" s="170"/>
@@ -10588,16 +11456,16 @@
         <v>3.3</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D64" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E64" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F64" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G64" s="163"/>
       <c r="H64" s="170"/>
@@ -10608,13 +11476,13 @@
       <c r="B65" s="217"/>
       <c r="C65" s="194"/>
       <c r="D65" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E65" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F65" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G65" s="163"/>
       <c r="H65" s="170"/>
@@ -10625,13 +11493,13 @@
       <c r="B66" s="195"/>
       <c r="C66" s="160"/>
       <c r="D66" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E66" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F66" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G66" s="163"/>
       <c r="H66" s="170"/>
@@ -10643,16 +11511,16 @@
         <v>3.4</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D67" s="197" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E67" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F67" s="189" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G67" s="163"/>
       <c r="H67" s="170"/>
@@ -10663,13 +11531,13 @@
       <c r="B68" s="217"/>
       <c r="C68" s="194"/>
       <c r="D68" s="197" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E68" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F68" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G68" s="163"/>
       <c r="H68" s="170"/>
@@ -10680,13 +11548,13 @@
       <c r="B69" s="195"/>
       <c r="C69" s="160"/>
       <c r="D69" s="197" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E69" s="188" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="F69" s="189" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G69" s="163"/>
       <c r="H69" s="170"/>
@@ -10698,16 +11566,16 @@
         <v>3.5</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="E70" s="218" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F70" s="219" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G70" s="163"/>
       <c r="H70" s="179"/>
@@ -10716,7 +11584,7 @@
     </row>
     <row r="71" ht="20" customHeight="1" spans="2:10">
       <c r="B71" s="155" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C71" s="156"/>
       <c r="D71" s="156"/>
@@ -10732,16 +11600,16 @@
         <v>4.1</v>
       </c>
       <c r="C72" s="160" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D72" s="183" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E72" s="220" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F72" s="221" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G72" s="163"/>
       <c r="H72" s="164"/>
@@ -10753,16 +11621,16 @@
         <v>4.2</v>
       </c>
       <c r="C73" s="197" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D73" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E73" s="220" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F73" s="222" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G73" s="163"/>
       <c r="H73" s="170"/>
@@ -10774,16 +11642,16 @@
         <v>4.3</v>
       </c>
       <c r="C74" s="197" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D74" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E74" s="223" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F74" s="222" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G74" s="163"/>
       <c r="H74" s="170"/>
@@ -10795,16 +11663,16 @@
         <v>4.4</v>
       </c>
       <c r="C75" s="197" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="D75" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E75" s="223" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="F75" s="222" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G75" s="163"/>
       <c r="H75" s="170"/>
@@ -10816,16 +11684,16 @@
         <v>4.5</v>
       </c>
       <c r="C76" s="197" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D76" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E76" s="223" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F76" s="222" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G76" s="163"/>
       <c r="H76" s="170"/>
@@ -10837,16 +11705,16 @@
         <v>4.6</v>
       </c>
       <c r="C77" s="197" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D77" s="187" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E77" s="223" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F77" s="222" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G77" s="163"/>
       <c r="H77" s="170"/>
@@ -10858,16 +11726,16 @@
         <v>4.7</v>
       </c>
       <c r="C78" s="225" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="D78" s="226" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E78" s="227" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="F78" s="228" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="G78" s="163"/>
       <c r="H78" s="229"/>
@@ -10992,24 +11860,24 @@
       <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8363636363636" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.66363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.8363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.8363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.8333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8363636363636" style="1"/>
-    <col min="7" max="7" width="49.8363636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6636363636364" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8363636363636" style="1"/>
+    <col min="5" max="5" width="19.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8333333333333" style="1"/>
+    <col min="7" max="7" width="49.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
@@ -11021,7 +11889,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
@@ -11033,7 +11901,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="12"/>
@@ -11045,10 +11913,10 @@
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="16" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -11067,33 +11935,33 @@
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:8">
       <c r="A6" s="25" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" ht="16.25" spans="1:8">
       <c r="A7" s="31" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -11108,13 +11976,13 @@
         <v>1.1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
@@ -11125,10 +11993,10 @@
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
@@ -11139,10 +12007,10 @@
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="42" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
@@ -11153,10 +12021,10 @@
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="42" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
@@ -11168,13 +12036,13 @@
         <v>1.2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -11185,10 +12053,10 @@
       <c r="A13" s="48"/>
       <c r="B13" s="35"/>
       <c r="C13" s="42" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -11200,13 +12068,13 @@
         <v>1.3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -11218,13 +12086,13 @@
         <v>1.4</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -11236,13 +12104,13 @@
         <v>1.5</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
@@ -11253,10 +12121,10 @@
       <c r="A17" s="54"/>
       <c r="B17" s="55"/>
       <c r="C17" s="52" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -11267,10 +12135,10 @@
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
       <c r="C18" s="52" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
@@ -11281,10 +12149,10 @@
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
       <c r="C19" s="52" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
@@ -11295,10 +12163,10 @@
       <c r="A20" s="54"/>
       <c r="B20" s="55"/>
       <c r="C20" s="52" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
@@ -11309,10 +12177,10 @@
       <c r="A21" s="48"/>
       <c r="B21" s="35"/>
       <c r="C21" s="56" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
@@ -11324,13 +12192,13 @@
         <v>1.6</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
@@ -11342,13 +12210,13 @@
         <v>1.7</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
@@ -11360,13 +12228,13 @@
         <v>1.8</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
@@ -11378,13 +12246,13 @@
         <v>1.9</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="61"/>
@@ -11395,33 +12263,33 @@
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="60" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
       <c r="H26" s="43"/>
     </row>
-    <row r="27" ht="15.75" spans="1:8">
+    <row r="27" ht="16.25" spans="1:8">
       <c r="A27" s="63"/>
       <c r="B27" s="64"/>
       <c r="C27" s="65" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
       <c r="H27" s="69"/>
     </row>
-    <row r="28" ht="15.75" spans="1:8">
+    <row r="28" ht="16.25" spans="1:8">
       <c r="A28" s="70" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
@@ -11436,13 +12304,13 @@
         <v>2.1</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="61"/>
@@ -11453,10 +12321,10 @@
       <c r="A30" s="74"/>
       <c r="B30" s="75"/>
       <c r="C30" s="60" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
@@ -11467,10 +12335,10 @@
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="60" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
@@ -11482,13 +12350,13 @@
         <v>2.2</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
@@ -11499,10 +12367,10 @@
       <c r="A33" s="74"/>
       <c r="B33" s="75"/>
       <c r="C33" s="60" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
@@ -11513,10 +12381,10 @@
       <c r="A34" s="74"/>
       <c r="B34" s="75"/>
       <c r="C34" s="60" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
@@ -11527,10 +12395,10 @@
       <c r="A35" s="80"/>
       <c r="B35" s="81"/>
       <c r="C35" s="60" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
@@ -11542,13 +12410,13 @@
         <v>2.3</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
@@ -11559,10 +12427,10 @@
       <c r="A37" s="74"/>
       <c r="B37" s="75"/>
       <c r="C37" s="60" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
@@ -11573,10 +12441,10 @@
       <c r="A38" s="80"/>
       <c r="B38" s="81"/>
       <c r="C38" s="60" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D38" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -11588,13 +12456,13 @@
         <v>2.4</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="61"/>
@@ -11605,10 +12473,10 @@
       <c r="A40" s="74"/>
       <c r="B40" s="75"/>
       <c r="C40" s="60" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -11619,10 +12487,10 @@
       <c r="A41" s="80"/>
       <c r="B41" s="81"/>
       <c r="C41" s="60" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -11634,13 +12502,13 @@
         <v>2.5</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -11651,10 +12519,10 @@
       <c r="A43" s="87"/>
       <c r="B43" s="85"/>
       <c r="C43" s="86" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -11665,10 +12533,10 @@
       <c r="A44" s="87"/>
       <c r="B44" s="85"/>
       <c r="C44" s="86" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
@@ -11679,10 +12547,10 @@
       <c r="A45" s="87"/>
       <c r="B45" s="85"/>
       <c r="C45" s="86" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
@@ -11693,10 +12561,10 @@
       <c r="A46" s="87"/>
       <c r="B46" s="85"/>
       <c r="C46" s="88" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
@@ -11707,10 +12575,10 @@
       <c r="A47" s="90"/>
       <c r="B47" s="85"/>
       <c r="C47" s="91" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="D47" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -11722,13 +12590,13 @@
         <v>2.6</v>
       </c>
       <c r="B48" s="94" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="C48" s="95" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D48" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="61"/>
@@ -11739,10 +12607,10 @@
       <c r="A49" s="96"/>
       <c r="B49" s="94"/>
       <c r="C49" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D49" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
@@ -11753,10 +12621,10 @@
       <c r="A50" s="98"/>
       <c r="B50" s="99"/>
       <c r="C50" s="97" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D50" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
@@ -11768,13 +12636,13 @@
         <v>2.7</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D51" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
@@ -11785,10 +12653,10 @@
       <c r="A52" s="96"/>
       <c r="B52" s="94"/>
       <c r="C52" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D52" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
@@ -11799,10 +12667,10 @@
       <c r="A53" s="98"/>
       <c r="B53" s="99"/>
       <c r="C53" s="97" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D53" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
@@ -11814,13 +12682,13 @@
         <v>2.8</v>
       </c>
       <c r="B54" s="101" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="D54" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
@@ -11831,10 +12699,10 @@
       <c r="A55" s="96"/>
       <c r="B55" s="102"/>
       <c r="C55" s="60" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D55" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
@@ -11845,10 +12713,10 @@
       <c r="A56" s="96"/>
       <c r="B56" s="102"/>
       <c r="C56" s="60" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D56" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
@@ -11859,10 +12727,10 @@
       <c r="A57" s="96"/>
       <c r="B57" s="102"/>
       <c r="C57" s="60" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D57" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
@@ -11873,10 +12741,10 @@
       <c r="A58" s="96"/>
       <c r="B58" s="102"/>
       <c r="C58" s="95" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D58" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
@@ -11887,10 +12755,10 @@
       <c r="A59" s="98"/>
       <c r="B59" s="103"/>
       <c r="C59" s="97" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="D59" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
@@ -11902,13 +12770,13 @@
         <v>2.9</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C60" s="95" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D60" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="61"/>
@@ -11919,10 +12787,10 @@
       <c r="A61" s="96"/>
       <c r="B61" s="94"/>
       <c r="C61" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D61" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
@@ -11933,19 +12801,19 @@
       <c r="A62" s="104"/>
       <c r="B62" s="105"/>
       <c r="C62" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D62" s="107" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E62" s="66"/>
       <c r="F62" s="67"/>
       <c r="G62" s="68"/>
       <c r="H62" s="108"/>
     </row>
-    <row r="63" ht="15.75" spans="1:8">
+    <row r="63" ht="16.25" spans="1:8">
       <c r="A63" s="109" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="B63" s="110"/>
       <c r="C63" s="111"/>
@@ -11960,13 +12828,13 @@
         <v>3.1</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="C64" s="95" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
@@ -11978,13 +12846,13 @@
         <v>3.2</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D65" s="92" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
@@ -11996,13 +12864,13 @@
         <v>3.3</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D66" s="92" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
@@ -12014,13 +12882,13 @@
         <v>3.4</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D67" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
@@ -12031,10 +12899,10 @@
       <c r="A68" s="96"/>
       <c r="B68" s="94"/>
       <c r="C68" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D68" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
@@ -12045,10 +12913,10 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D69" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
@@ -12060,13 +12928,13 @@
         <v>3.5</v>
       </c>
       <c r="B70" s="114" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D70" s="92" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
@@ -12078,13 +12946,13 @@
         <v>3.6</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D71" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -12095,10 +12963,10 @@
       <c r="A72" s="96"/>
       <c r="B72" s="94"/>
       <c r="C72" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D72" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
@@ -12109,10 +12977,10 @@
       <c r="A73" s="98"/>
       <c r="B73" s="99"/>
       <c r="C73" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D73" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
@@ -12124,13 +12992,13 @@
         <v>3.7</v>
       </c>
       <c r="B74" s="114" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D74" s="92" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
@@ -12142,13 +13010,13 @@
         <v>3.8</v>
       </c>
       <c r="B75" s="100" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D75" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
@@ -12159,10 +13027,10 @@
       <c r="A76" s="96"/>
       <c r="B76" s="94"/>
       <c r="C76" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D76" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
@@ -12173,10 +13041,10 @@
       <c r="A77" s="98"/>
       <c r="B77" s="99"/>
       <c r="C77" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D77" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
@@ -12188,13 +13056,13 @@
         <v>3.9</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="C78" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
@@ -12205,10 +13073,10 @@
       <c r="A79" s="96"/>
       <c r="B79" s="117"/>
       <c r="C79" s="106" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D79" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
@@ -12219,19 +13087,19 @@
       <c r="A80" s="104"/>
       <c r="B80" s="118"/>
       <c r="C80" s="65" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D80" s="119" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="68"/>
       <c r="H80" s="108"/>
     </row>
-    <row r="81" ht="15.75" spans="1:8">
+    <row r="81" ht="16.25" spans="1:8">
       <c r="A81" s="109" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="B81" s="110"/>
       <c r="C81" s="111"/>
@@ -12246,13 +13114,13 @@
         <v>4.1</v>
       </c>
       <c r="B82" s="95" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E82" s="121"/>
       <c r="F82" s="38"/>
@@ -12264,13 +13132,13 @@
         <v>4.2</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C83" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D83" s="92" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E83" s="121"/>
       <c r="F83" s="38"/>
@@ -12282,13 +13150,13 @@
         <v>4.3</v>
       </c>
       <c r="B84" s="97" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="C84" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D84" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E84" s="121"/>
       <c r="F84" s="38"/>
@@ -12299,10 +13167,10 @@
       <c r="A85" s="113"/>
       <c r="B85" s="97"/>
       <c r="C85" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D85" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E85" s="121"/>
       <c r="F85" s="38"/>
@@ -12313,10 +13181,10 @@
       <c r="A86" s="113"/>
       <c r="B86" s="97"/>
       <c r="C86" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D86" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E86" s="121"/>
       <c r="F86" s="38"/>
@@ -12328,13 +13196,13 @@
         <v>4.4</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C87" s="97" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D87" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E87" s="121"/>
       <c r="F87" s="38"/>
@@ -12345,10 +13213,10 @@
       <c r="A88" s="113"/>
       <c r="B88" s="97"/>
       <c r="C88" s="97" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D88" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E88" s="121"/>
       <c r="F88" s="38"/>
@@ -12359,10 +13227,10 @@
       <c r="A89" s="113"/>
       <c r="B89" s="97"/>
       <c r="C89" s="106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D89" s="92" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E89" s="121"/>
       <c r="F89" s="38"/>
@@ -12374,22 +13242,22 @@
         <v>4.5</v>
       </c>
       <c r="B90" s="106" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="C90" s="57" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D90" s="107" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E90" s="122"/>
       <c r="F90" s="67"/>
       <c r="G90" s="68"/>
       <c r="H90" s="108"/>
     </row>
-    <row r="91" ht="15.75" spans="1:8">
+    <row r="91" ht="16.25" spans="1:8">
       <c r="A91" s="31" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="B91" s="111"/>
       <c r="C91" s="111"/>
@@ -12404,13 +13272,13 @@
         <v>5.1</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="C92" s="95" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D92" s="95" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
@@ -12422,13 +13290,13 @@
         <v>5.2</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="C93" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D93" s="97" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
@@ -12440,13 +13308,13 @@
         <v>5.3</v>
       </c>
       <c r="B94" s="97" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="C94" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D94" s="97" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
@@ -12458,13 +13326,13 @@
         <v>5.4</v>
       </c>
       <c r="B95" s="97" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="C95" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D95" s="97" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
@@ -12476,13 +13344,13 @@
         <v>5.5</v>
       </c>
       <c r="B96" s="97" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C96" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D96" s="97" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
@@ -12494,13 +13362,13 @@
         <v>5.6</v>
       </c>
       <c r="B97" s="97" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="C97" s="97" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D97" s="95" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
@@ -12512,13 +13380,13 @@
         <v>5.7</v>
       </c>
       <c r="B98" s="124" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="C98" s="124" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="D98" s="124" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="E98" s="125"/>
       <c r="F98" s="126"/>
